--- a/biology/Botanique/L'Or_du_Rhin_(fraise)/L'Or_du_Rhin_(fraise).xlsx
+++ b/biology/Botanique/L'Or_du_Rhin_(fraise)/L'Or_du_Rhin_(fraise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Or_du_Rhin_(fraise)</t>
+          <t>L'Or_du_Rhin_(fraise)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’Or du Rhin est une variété de fraise (Fragaria × ananassa Duch.), issue de la région de Gotha (Allemagne). Elle était beaucoup cultivée à Vottem dans l’après-guerre[3].
+L’Or du Rhin est une variété de fraise (Fragaria × ananassa Duch.), issue de la région de Gotha (Allemagne). Elle était beaucoup cultivée à Vottem dans l’après-guerre.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Or_du_Rhin_(fraise)</t>
+          <t>L'Or_du_Rhin_(fraise)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Cultivation et commercialisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la Seconde Guerre mondiale, cette variété était notamment vendue à la Criée Coopérative de Vottem, où elle était surtout cultivée dans le centre et la partie basse du village, ainsi qu’à La Préalle, un hameau de Herstal. Dans les années 1950, cette criée commercialisait entre 18 et 37 tonnes de fraises par année, produites par environ 200 producteurs[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la Seconde Guerre mondiale, cette variété était notamment vendue à la Criée Coopérative de Vottem, où elle était surtout cultivée dans le centre et la partie basse du village, ainsi qu’à La Préalle, un hameau de Herstal. Dans les années 1950, cette criée commercialisait entre 18 et 37 tonnes de fraises par année, produites par environ 200 producteurs.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Or_du_Rhin_(fraise)</t>
+          <t>L'Or_du_Rhin_(fraise)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fraise grande à très grande, conique ou forme de cœur, graines foncées, modérément abaissées, rouge brillant, ferme, jus foncé, goût épicé, bon arôme[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fraise grande à très grande, conique ou forme de cœur, graines foncées, modérément abaissées, rouge brillant, ferme, jus foncé, goût épicé, bon arôme.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Or_du_Rhin_(fraise)</t>
+          <t>L'Or_du_Rhin_(fraise)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Cultivation[1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Epoque de floraison : hâtive
 Terre : bonne terre de jardin fumée et fraîche
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Or_du_Rhin_(fraise)</t>
+          <t>L'Or_du_Rhin_(fraise)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Conservation de la variété</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le matériel génétique de cette fraise est conservé notamment à la Banque génétique pour les Fruits à Dresde en Allemagne, où on la cultive afin de maintenir la variété[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le matériel génétique de cette fraise est conservé notamment à la Banque génétique pour les Fruits à Dresde en Allemagne, où on la cultive afin de maintenir la variété.
 </t>
         </is>
       </c>
